--- a/medicine/Enfance/Béatrice_Libert_(écrivain)/Béatrice_Libert_(écrivain).xlsx
+++ b/medicine/Enfance/Béatrice_Libert_(écrivain)/Béatrice_Libert_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+          <t>Béatrice_Libert_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Libert (née à Amay-sur-Meuse en 1952) est une poète et écrivain belge qui vit en Wallonie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+          <t>Béatrice_Libert_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l’auteur de livres de poèmes, nouvelles, roman, essais, monographies et récits. Critique de poésie et animatrice en ateliers d’écriture, elle écrit aussi pour la jeunesse et elle a cosigné plusieurs livres d´artistes. Elle donne des spectacles et des lectures publiques, accompagnée de musiciens.
 Elle est membre de L'Association des écrivains belges, de l'Association Royale des écrivains et des artistes wallons, de la Charte, de la SACD-SCAM et de la SMart.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+          <t>Béatrice_Libert_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Amélie Murat de la Ville de Clermont-Ferrand
 Prix Marcel Lobet
 Prix Edmond Roche de la Ville de Calais
-Prix de l'édition poétique de la Ville de Dijon [1].
-Prix Jean Kobs de l'Académie royale de langue et de littérature françaises de Belgique[2].
-Prix Joël Sadeler 2021[3] pour La sourde oreille et autres menus trésors, illustrations de Pierre Laroche</t>
+Prix de l'édition poétique de la Ville de Dijon .
+Prix Jean Kobs de l'Académie royale de langue et de littérature françaises de Belgique.
+Prix Joël Sadeler 2021 pour La sourde oreille et autres menus trésors, illustrations de Pierre Laroche</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+          <t>Béatrice_Libert_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poésie
-Invitation, éditions Thalia, 1979
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Invitation, éditions Thalia, 1979
 Parades, éditions André De Rache, 1983
 Baisers volés à Paul Eluard, suivi de Remparts, éditions Vie Ouvrière, 1989
 Lalangue du désir et du désarroi, L'Arbre à paroles, 1991
@@ -614,9 +635,43 @@
 La nuit porte jarretelles, aphorismes, Cactus inébranlable, 2020
 Arbracadabrants, préface d’Éric Brogniet, Le Taillis Pré, 2021.
 Comme un livre ouvert à la croisée des doutes, photographies de Laurence Toussaint, Signum, Paris, 2021.
-Poèmes en quête de nuits douces, Le Taillis Pré, 2023.
-Poésie en édition limitée
-Le jardin fragile, Alain-Benoît, dessins de Martine Chittofrati, Rochefort-du-Gard, 2004, collection raffia
+Poèmes en quête de nuits douces, Le Taillis Pré, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie en édition limitée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le jardin fragile, Alain-Benoît, dessins de Martine Chittofrati, Rochefort-du-Gard, 2004, collection raffia
 Paroles du soir Alain-Benoît, encres d’Anne Slacik, Rochefort-du-Gard, 200t ; collection Brèche
 Ton corps Alain-Benoît, nus de Pierre Cayol, Rochefort-du-Gard, 2008
 Les couleurs du dedans, Barde la Lézarde, Paris, 2011, coll. Fol’ivre ; interventions de May Livory
@@ -624,9 +679,43 @@
 Traces, poèmes avec des interventions plastiques de Pierre Laroche, 90 exemplaires signés et  numérotés, éditions du Ravin, Digne, 2019
 Bal masqué, 12 gravures de Cécile Nicolino et 12 distiques de l’auteur, éditions du Ravin, tirage artisanal limité à 100 exemplaires, Digne-les-Bains, 2021.
 Vers le simple… 27 photographies de Gérard Niemetzky, poème (12 strophes/pages), 250 exemplaires, A(R)TELIER, Arles, mai 2022.
-Treize variations autour du poème, dessins de Pierre Laroche, éditions des Deux Frères, Digne-les-Bains, printemps 2022 ; 100 exemplaires.
-Poésie en éditions 'jeunesse'
-Un arbre cogne à la vitre, Pluie d'étoiles, 2000
+Treize variations autour du poème, dessins de Pierre Laroche, éditions des Deux Frères, Digne-les-Bains, printemps 2022 ; 100 exemplaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie en éditions 'jeunesse'</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un arbre cogne à la vitre, Pluie d'étoiles, 2000
 Saison des extravagances, Gros Textes, Châteauroux-les-Alpes, 2011, dessins de Willy Welter (épuisé)
 Le bestiaire en folie, Couleurs Livres, collection Carré d’as, Charleroi, 2011, dessins de Xavier Lache
 La marmite de la marmotte, illustrations en couleurs de Bénédicte Boullet, Éditions Henry, 2013
@@ -638,9 +727,43 @@
 Fables pour notre temps, Édition du Ravin, Digne-les-Bains, 2017, illustrations de Pierre Laroche.
 Mes premières comptines et autres petits poèmes, choix de Béatrice Libert, images de Luce Guilbaud, Couleur Livres, Carré d’as, 2019
 V’là l’bon vent, collages de Pierre Laroche, 100 exemplaires, numérotés et signés, éditions du Ravin, 2019
-La sourde oreille et autres menus trésors, collages de Pierre Laroche, éditions Henry, mai 2020
-Poésie en périodiques : numéros spéciaux
-L’heure blanche, Encres Vives N° 252, Colomiers, 2000, postface de Jean Joubert
+La sourde oreille et autres menus trésors, collages de Pierre Laroche, éditions Henry, mai 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie en périodiques : numéros spéciaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’heure blanche, Encres Vives N° 252, Colomiers, 2000, postface de Jean Joubert
 Regards croisés, La Porte, Laon, 2001, photographies d’Étienne Pierlot
 Litanie pour un doute, Encres Vives, N° 313, Colomiers, 2004
 Alphabet blanc, La Porte, Laon, 2004
@@ -650,9 +773,43 @@
 Alphabet en quête d’auteurs, Ficelle n° 112, dessins de Vincent Rougier, 2013
 Entre tes lèvres, La Porte, Laon, 2015
 A consommer de préférence avant la date indiquée au verso, (extraits), La bafouille incontinente n° 39, avant-dire de Jean-Pierre Verheggen, éditions Boumboumtralala, Liège, novembre 2015
-Chemins du possible, Pourtant n°6, 2023
-Poésie en traductions
-Lingua desiderio sgomento, version italienne de Francis Tessa, L’Arbre à paroles, 1995
+Chemins du possible, Pourtant n°6, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie en traductions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lingua desiderio sgomento, version italienne de Francis Tessa, L’Arbre à paroles, 1995
 Migraine, version allemande de  Rüdiger Fischer, reprise dans Encore une journée,  éditions en Forêt, Rimbach, 1996
 Le bonheur inconsolé  version roumaine de Luiza Palenciuc, LiterNet.ro, février 2005
 La Passagère, version roumaine de Luiza Palenciuc, LiterNet.ro, février 2005
@@ -660,31 +817,235 @@
 Le rameur sans rivage, version roumaine par G et C Abaluta, Universal Dalsi, Bucarest, 2002
 Le bonheur inconsolé / La Passagère / Litanie pour un doute / version roumaine de Luiza Palenciuc, LiterNet.ro, février 2005
 Das Zünd Blättchen, (extraits) version allemande de Rüdiger Fisscher, Dreizeichen, Meissen, 2010
-Pan a los gorriones, Paso de Barca, Barcelone, 2013, version espagnole de Myriam Montoya : anthologie personnelle ; choix de poèmes en version française et espagnole
-Proses
-Récits autobiographiques : Une enfance au creux des mots, Couleur Livres, Charleroi, 2005 ; 2e éd., 2011
+Pan a los gorriones, Paso de Barca, Barcelone, 2013, version espagnole de Myriam Montoya : anthologie personnelle ; choix de poèmes en version française et espagnole</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Proses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Récits autobiographiques : Une enfance au creux des mots, Couleur Livres, Charleroi, 2005 ; 2e éd., 2011
 Nouvelles épistolaires : Lettres à l’intemporel, Le Bruit des autres, Limoges, 2010
 Proses poétiques : Musique de chambre, Le Bruit des autres, Limoges, 2010
-Roman : Sonate en là majeur, Le bruit des autres, Limoges, 2012
-Prose jeunesse
-Le chevalier des sept couleurs, mise en images de Mathieu Schmitt, éditions Vagamundo Jeunesses, Pont-Aven, 2018.
-Essais
-La classe de français en fête, Dessain, 1983
+Roman : Sonate en là majeur, Le bruit des autres, Limoges, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prose jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le chevalier des sept couleurs, mise en images de Mathieu Schmitt, éditions Vagamundo Jeunesses, Pont-Aven, 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La classe de français en fête, Dessain, 1983
 Jean Joubert, en collaboration avec M-C Masset, L'Arbre à paroles, Amay, 1996
 Marie-José Viseur, Dossier L, Service du Livre Luxembourgeois, 1999
 Jean Joubert, parcours poétique, L'Arbre à paroles, 2006
 Au pays de Magritte, regarder, lire, écrire, créer, Couleur livres, 2009
 Au pays de Maurice Carême, regarder, lire, écrire, créer, Couleur livres, 2010
 Au pays de Jean Joubert, regarder, lire, écrire, créer, Couleur livres, 2012
-Entrer dans l’univers de Nancy Pierret, illustratrice et créatrice pour la jeunesse, carnet pédagogique, Échevinats de la culture et de l’enseignement de la Ville de Liège, 2013
-Anthologie
-A claires voix, choix et avant-dire ; auteurs des ateliers pARTage, à la Maison de la poésie de Namur ; L’Arbre à paroles, 2013
-Monographie
-Chantal Bietlot, artiste peintre, chez l’artiste, Visé, 2006
+Entrer dans l’univers de Nancy Pierret, illustratrice et créatrice pour la jeunesse, carnet pédagogique, Échevinats de la culture et de l’enseignement de la Ville de Liège, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Anthologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A claires voix, choix et avant-dire ; auteurs des ateliers pARTage, à la Maison de la poésie de Namur ; L’Arbre à paroles, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Monographie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chantal Bietlot, artiste peintre, chez l’artiste, Visé, 2006
 Entrer dans l’univers de Francis Joiris, artiste cartonniste, éditions Le Taillis Pré, Châtelineau, 2015
-Béatrice Libert, Confluences : peintures, poésie et livres d’artistes : Liège museum no 55, mars 2018, bulletin des musées de la ville de Liège. Contributions de Jean Pierre Hupkens, Yves Namur, Christine Maréchal, Béatrice Libert ; crédit photo Charlotte Durande.
-Livres d’artistes avec
-Nelly Avila, Angel Beatove, Enan Burgos, Jean-Noël Baches, Anick Butré, Pierre Cayol, Claire Cuenot, Martine Chittofrati, Jacques Clauzel, Maria Desmée, Michel Fabre, Annie Gaukema, Raphaël Kleweta, Pierre Laroche, May Livory, Danielle Loisel, Wanda Mihuleac, Chantal Némery, Jean-Marie Pieron, Vincent Rougier, Raphaël Segura, Andrea Sotolaya de Suňer, Anne Slacik, Motoko Tachikawa, Laurence Toussaint, …
+Béatrice Libert, Confluences : peintures, poésie et livres d’artistes : Liège museum no 55, mars 2018, bulletin des musées de la ville de Liège. Contributions de Jean Pierre Hupkens, Yves Namur, Christine Maréchal, Béatrice Libert ; crédit photo Charlotte Durande.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Béatrice_Libert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Libert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Livres d’artistes avec</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nelly Avila, Angel Beatove, Enan Burgos, Jean-Noël Baches, Anick Butré, Pierre Cayol, Claire Cuenot, Martine Chittofrati, Jacques Clauzel, Maria Desmée, Michel Fabre, Annie Gaukema, Raphaël Kleweta, Pierre Laroche, May Livory, Danielle Loisel, Wanda Mihuleac, Chantal Némery, Jean-Marie Pieron, Vincent Rougier, Raphaël Segura, Andrea Sotolaya de Suňer, Anne Slacik, Motoko Tachikawa, Laurence Toussaint, …
 </t>
         </is>
       </c>
